--- a/project/DGUSTools & References/Development Tools/Interpreting T5LCFG_272480.xlsx
+++ b/project/DGUSTools & References/Development Tools/Interpreting T5LCFG_272480.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0884FBD4-B47D-4EA6-B964-615AB3042441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F173514-E15B-434B-956A-478D257F3271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T5L CFG - HEX" sheetId="1" r:id="rId1"/>
@@ -14,24 +14,11 @@
     <sheet name="Translation Lookup Tables" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="293">
   <si>
     <t>Hex Address</t>
   </si>
@@ -916,6 +903,12 @@
   </si>
   <si>
     <t>a5</t>
+  </si>
+  <si>
+    <t>T5LCFG_272480K_CRCon.CFG</t>
+  </si>
+  <si>
+    <t>bf</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1880,6 +1873,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1910,30 +1927,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2505,6 +2499,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>281941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>69765</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D051A51-3CD8-2E45-9ACB-60B7AF12961A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4922520" y="13921741"/>
+          <a:ext cx="6036225" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3034,10 +3089,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3049,24 +3104,8 @@
   <sheetData>
     <row r="1" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="176" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
+        <v>291</v>
+      </c>
       <c r="R1" s="177"/>
       <c r="S1" s="177"/>
       <c r="T1" s="177"/>
@@ -3155,53 +3194,53 @@
       <c r="A3" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="E3">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>28</v>
+      <c r="P3">
+        <v>33</v>
+      </c>
+      <c r="Q3">
+        <v>40</v>
       </c>
       <c r="AH3" s="200"/>
       <c r="AI3" s="193"/>
@@ -3261,6 +3300,7 @@
       <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="U4" s="194"/>
       <c r="AH4" s="202" t="s">
         <v>256</v>
       </c>
@@ -3279,8 +3319,8 @@
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>244</v>
+      <c r="D5">
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -3292,7 +3332,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -3313,10 +3353,8 @@
         <v>32</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+        <v>26</v>
+      </c>
       <c r="AH5" s="203"/>
       <c r="AI5" s="194"/>
       <c r="AJ5" s="194"/>
@@ -3507,7 +3545,7 @@
       </c>
       <c r="L11" s="187" t="str">
         <f>LEFT(G3,1)</f>
-        <v>3</v>
+        <v>b</v>
       </c>
       <c r="M11" s="188" t="str">
         <f>RIGHT(G3,1)</f>
@@ -3579,19 +3617,19 @@
       </c>
       <c r="AD11" s="187" t="str">
         <f>LEFT(P3,1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="188" t="str">
         <f>RIGHT(P3,1)</f>
-        <v>b</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="187" t="str">
         <f>LEFT(Q3,1)</f>
-        <v>b</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="str">
         <f>RIGHT(Q3,1)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="203"/>
       <c r="AI11" s="194"/>
@@ -3791,11 +3829,11 @@
       </c>
       <c r="N13" s="189" t="str">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>f</v>
       </c>
       <c r="O13" s="190" t="str">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>e</v>
       </c>
       <c r="P13" s="189" t="str">
         <f t="shared" si="14"/>
@@ -3847,11 +3885,11 @@
       </c>
       <c r="AB13" s="189" t="str">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="190" t="str">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>a</v>
       </c>
       <c r="AD13" s="189" t="s">
         <v>259</v>
@@ -4709,10 +4747,10 @@
       <c r="A42" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="225" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="225" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="1">
@@ -5418,6 +5456,218 @@
       </c>
       <c r="Q67" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A75" s="176" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" s="4">
+        <v>8</v>
+      </c>
+      <c r="K76" s="4">
+        <v>9</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>54</v>
+      </c>
+      <c r="C77">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77">
+        <v>43</v>
+      </c>
+      <c r="F77">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>292</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>20</v>
+      </c>
+      <c r="K77">
+        <v>28</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77">
+        <v>64</v>
+      </c>
+      <c r="O77" t="s">
+        <v>26</v>
+      </c>
+      <c r="P77">
+        <v>33</v>
+      </c>
+      <c r="Q77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="179" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="179" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5511,7 +5761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -5533,25 +5783,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="217" t="s">
+      <c r="C1" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="218"/>
-      <c r="E1" s="217" t="s">
+      <c r="D1" s="208"/>
+      <c r="E1" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="218"/>
+      <c r="F1" s="208"/>
       <c r="G1" s="34"/>
-      <c r="H1" s="217" t="s">
+      <c r="H1" s="207" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="218"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="208"/>
       <c r="P1" s="182" t="s">
         <v>261</v>
       </c>
@@ -5591,21 +5841,21 @@
         <v>74</v>
       </c>
       <c r="G2" s="31"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="222" t="s">
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="223"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
       <c r="P2" s="183" t="str">
         <f>'T5L CFG - HEX'!A1</f>
-        <v>T5LCFG_272480K.CFG</v>
+        <v>T5LCFG_272480K_CRCon.CFG</v>
       </c>
       <c r="R2" s="44" t="s">
         <v>265</v>
@@ -5615,7 +5865,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="217" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="130" t="s">
@@ -5678,7 +5928,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="210"/>
+      <c r="A4" s="218"/>
       <c r="B4" s="131" t="s">
         <v>2</v>
       </c>
@@ -5736,7 +5986,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="210"/>
+      <c r="A5" s="218"/>
       <c r="B5" s="131" t="s">
         <v>3</v>
       </c>
@@ -5794,7 +6044,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="210"/>
+      <c r="A6" s="218"/>
       <c r="B6" s="131" t="s">
         <v>4</v>
       </c>
@@ -5852,7 +6102,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="210"/>
+      <c r="A7" s="218"/>
       <c r="B7" s="131" t="s">
         <v>5</v>
       </c>
@@ -5918,15 +6168,15 @@
       </c>
       <c r="C8" s="45" t="str">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!L$11),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!L$11,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
-        <v>0011</v>
+        <v>1011</v>
       </c>
       <c r="D8" s="46">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!M$11),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!M$11,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
         <v>1111</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="45" t="str">
         <f>VLOOKUP(C8,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
-        <v>3</v>
+        <v>b</v>
       </c>
       <c r="F8" s="46" t="str">
         <f>VLOOKUP(D8,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
@@ -5935,7 +6185,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
@@ -5946,7 +6196,7 @@
       <c r="O8" s="58"/>
       <c r="P8" s="138" t="str">
         <f>VLOOKUP(CONCATENATE(B8," = ",H8),'Translation Lookup Tables'!$H$2:$I$18,2,FALSE)</f>
-        <v>Serial Port CRC Check - Open</v>
+        <v>Serial Port CRC Check - Close</v>
       </c>
       <c r="R8" s="44" t="s">
         <v>220</v>
@@ -6662,7 +6912,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="211" t="s">
+      <c r="A23" s="219" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="54" t="s">
@@ -6738,7 +6988,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="212"/>
+      <c r="A24" s="220"/>
       <c r="B24" s="55" t="s">
         <v>68</v>
       </c>
@@ -6946,7 +7196,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="213" t="s">
+      <c r="A27" s="221" t="s">
         <v>126</v>
       </c>
       <c r="B27" s="36" t="s">
@@ -6954,19 +7204,19 @@
       </c>
       <c r="C27" s="39" t="str">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!AD$11),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!AD$11,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="D27" s="40" t="str">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!AE$11),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!AE$11,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
-        <v>1011</v>
+        <v>0011</v>
       </c>
       <c r="E27" s="39">
         <f>VLOOKUP(C27,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="40" t="str">
+        <v>3</v>
+      </c>
+      <c r="F27" s="40">
         <f>VLOOKUP(D27,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
-        <v>b</v>
+        <v>3</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="10" t="str">
@@ -6979,15 +7229,15 @@
       </c>
       <c r="J27" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="23" t="str">
         <f t="shared" si="5"/>
@@ -7003,7 +7253,7 @@
       </c>
       <c r="P27" t="str">
         <f>CONCATENATE("Backlight wakeup time after standby = ",(VLOOKUP(E27,'Translation Lookup Tables'!C4:D19,2,FALSE)*64+VLOOKUP('T5L CFG - Interpretation'!F27,'Translation Lookup Tables'!C4:D19,2,FALSE)*32+VLOOKUP('T5L CFG - Interpretation'!E28,'Translation Lookup Tables'!C4:D19,2,FALSE)*16+VLOOKUP('T5L CFG - Interpretation'!F28,'Translation Lookup Tables'!C4:D19,2,FALSE))*10,"ms")</f>
-        <v>Backlight wakeup time after standby = 5360ms</v>
+        <v>Backlight wakeup time after standby = 3520ms</v>
       </c>
       <c r="R27" t="s">
         <v>267</v>
@@ -7022,46 +7272,46 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="214"/>
+      <c r="A28" s="222"/>
       <c r="B28" s="38" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!AF$11),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!AF$11,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
-        <v>1011</v>
+        <v>0100</v>
       </c>
       <c r="D28" s="21" t="str">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!AG$11),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!AG$11,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
-        <v>1000</v>
-      </c>
-      <c r="E28" s="9" t="str">
+        <v>0000</v>
+      </c>
+      <c r="E28" s="9">
         <f>VLOOKUP(C28,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
-        <v>b</v>
+        <v>4</v>
       </c>
       <c r="F28" s="21">
         <f>VLOOKUP(D28,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="41" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="42" t="str">
         <f t="shared" si="5"/>
@@ -7083,7 +7333,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="223" t="s">
         <v>158</v>
       </c>
       <c r="B29" s="81" t="s">
@@ -7146,7 +7396,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="216"/>
+      <c r="A30" s="224"/>
       <c r="B30" s="92" t="s">
         <v>91</v>
       </c>
@@ -7439,7 +7689,7 @@
       <c r="P34" s="114"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="207" t="s">
+      <c r="A35" s="215" t="s">
         <v>204</v>
       </c>
       <c r="B35" s="117" t="s">
@@ -7494,10 +7744,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P35" s="208"/>
+      <c r="P35" s="216"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="207"/>
+      <c r="A36" s="215"/>
       <c r="B36" s="117" t="s">
         <v>97</v>
       </c>
@@ -7550,7 +7800,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P36" s="208"/>
+      <c r="P36" s="216"/>
     </row>
     <row r="37" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="127" t="s">
@@ -7727,7 +7977,7 @@
       <c r="P39" s="114"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="207" t="s">
+      <c r="A40" s="215" t="s">
         <v>208</v>
       </c>
       <c r="B40" s="117" t="s">
@@ -7782,10 +8032,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P40" s="208"/>
+      <c r="P40" s="216"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="207"/>
+      <c r="A41" s="215"/>
       <c r="B41" s="117" t="s">
         <v>102</v>
       </c>
@@ -7838,7 +8088,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P41" s="208"/>
+      <c r="P41" s="216"/>
     </row>
     <row r="42" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="116" t="s">
@@ -8517,17 +8767,17 @@
       <c r="B55" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="105" t="str">
+      <c r="C55" s="105">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!N$13),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!N$13,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
-        <v>0001</v>
+        <v>1111</v>
       </c>
       <c r="D55" s="106" t="str">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!O$12),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!O$12,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
         <v>0000</v>
       </c>
-      <c r="E55" s="105">
+      <c r="E55" s="105" t="str">
         <f>VLOOKUP(C55,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
-        <v>1</v>
+        <v>f</v>
       </c>
       <c r="F55" s="106">
         <f>VLOOKUP(D55,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
@@ -8536,15 +8786,15 @@
       <c r="G55" s="107"/>
       <c r="H55" s="108" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="109" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="109" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="110" t="str">
         <f t="shared" si="15"/>
@@ -8946,7 +9196,7 @@
       </c>
       <c r="C62" s="105" t="str">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!AB$13),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!AB$13,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="D62" s="106" t="str">
         <f>IFERROR(VLOOKUP(VALUE('T5L CFG - HEX'!AC$12),'Translation Lookup Tables'!$A$3:$B$19,2,FALSE),VLOOKUP('T5L CFG - HEX'!AC$12,'Translation Lookup Tables'!$A$3:$B$19,2,FALSE))</f>
@@ -8954,7 +9204,7 @@
       </c>
       <c r="E62" s="105">
         <f>VLOOKUP(C62,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F62" s="106">
         <f>VLOOKUP(D62,'Translation Lookup Tables'!$B$3:$C$19,2,FALSE)</f>
@@ -8967,11 +9217,11 @@
       </c>
       <c r="I62" s="109" t="str">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="109" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="110" t="str">
         <f t="shared" si="15"/>
@@ -9022,11 +9272,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="H1:O1"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="P40:P41"/>
     <mergeCell ref="P35:P36"/>
@@ -9035,6 +9280,11 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="H1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="S25:T26">
